--- a/doc/00我的工作相关账户信息/工作中用到的账户（个人）.xlsx
+++ b/doc/00我的工作相关账户信息/工作中用到的账户（个人）.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
   <si>
     <t>官方网址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -91,6 +91,22 @@
   </si>
   <si>
     <t>github账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>虚拟机账户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guyue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guyue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>root</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -460,21 +476,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="68.625" customWidth="1"/>
-    <col min="2" max="2" width="31.375" customWidth="1"/>
-    <col min="3" max="3" width="42.5" customWidth="1"/>
-    <col min="4" max="4" width="35.5" customWidth="1"/>
+    <col min="1" max="1" width="68.6640625" customWidth="1"/>
+    <col min="2" max="2" width="31.33203125" customWidth="1"/>
+    <col min="3" max="3" width="42.44140625" customWidth="1"/>
+    <col min="4" max="4" width="35.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -488,7 +504,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -502,7 +518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -516,7 +532,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -530,7 +546,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -544,7 +560,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -558,7 +574,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -570,6 +586,28 @@
       </c>
       <c r="D7" t="s">
         <v>19</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
+        <v>21</v>
+      </c>
+      <c r="C8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -589,7 +627,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -602,7 +640,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/00我的工作相关账户信息/工作中用到的账户（个人）.xlsx
+++ b/doc/00我的工作相关账户信息/工作中用到的账户（个人）.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
   <si>
     <t>官方网址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,17 @@
   <si>
     <t>root</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1182738042@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huhedong2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.leangoo.com/</t>
   </si>
 </sst>
 </file>
@@ -476,21 +487,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="68.6640625" customWidth="1"/>
-    <col min="2" max="2" width="31.33203125" customWidth="1"/>
-    <col min="3" max="3" width="42.44140625" customWidth="1"/>
-    <col min="4" max="4" width="35.44140625" customWidth="1"/>
+    <col min="1" max="1" width="68.625" customWidth="1"/>
+    <col min="2" max="2" width="31.375" customWidth="1"/>
+    <col min="3" max="3" width="42.5" customWidth="1"/>
+    <col min="4" max="4" width="35.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -504,7 +515,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A2" t="s">
         <v>4</v>
       </c>
@@ -518,7 +529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A3" s="2" t="s">
         <v>16</v>
       </c>
@@ -532,7 +543,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A4" s="2" t="s">
         <v>17</v>
       </c>
@@ -546,7 +557,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A5" t="s">
         <v>11</v>
       </c>
@@ -560,7 +571,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6" t="s">
         <v>14</v>
       </c>
@@ -574,7 +585,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -588,7 +599,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8" t="s">
         <v>20</v>
       </c>
@@ -599,7 +610,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -608,6 +619,17 @@
       </c>
       <c r="C9" t="s">
         <v>21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A10" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
@@ -615,9 +637,11 @@
   <hyperlinks>
     <hyperlink ref="A4" r:id="rId1"/>
     <hyperlink ref="A3" r:id="rId2"/>
+    <hyperlink ref="B10" r:id="rId3"/>
+    <hyperlink ref="A10" r:id="rId4" display="qq://txfile/"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
 </worksheet>
 </file>
 
@@ -627,7 +651,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -640,7 +664,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/doc/00我的工作相关账户信息/工作中用到的账户（个人）.xlsx
+++ b/doc/00我的工作相关账户信息/工作中用到的账户（个人）.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
   <si>
     <t>官方网址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -119,6 +119,22 @@
   </si>
   <si>
     <t>https://www.leangoo.com/</t>
+  </si>
+  <si>
+    <t>http://192.168.137.128:8080</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guyue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>guyue</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>自我搭建的jenkins用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -487,10 +503,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D10"/>
+  <dimension ref="A1:D11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -632,6 +648,20 @@
         <v>25</v>
       </c>
     </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B11" t="s">
+        <v>28</v>
+      </c>
+      <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -639,9 +669,10 @@
     <hyperlink ref="A3" r:id="rId2"/>
     <hyperlink ref="B10" r:id="rId3"/>
     <hyperlink ref="A10" r:id="rId4" display="qq://txfile/"/>
+    <hyperlink ref="A11" r:id="rId5"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/doc/00我的工作相关账户信息/工作中用到的账户（个人）.xlsx
+++ b/doc/00我的工作相关账户信息/工作中用到的账户（个人）.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
   <si>
     <t>官方网址</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -134,6 +134,25 @@
   </si>
   <si>
     <t>自我搭建的jenkins用户</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>http://www.bijishequ.com/?currentPage=25&amp;pageSize=12</t>
+  </si>
+  <si>
+    <t>1182738042@qq.com</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>huhedong2017</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>学习笔记社区</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>胡贺东qq</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -503,10 +522,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -662,6 +681,31 @@
         <v>30</v>
       </c>
     </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="A12" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C12" t="s">
+        <v>33</v>
+      </c>
+      <c r="D12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.15">
+      <c r="B13">
+        <v>1182738042</v>
+      </c>
+      <c r="C13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D13" t="s">
+        <v>35</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <hyperlinks>
@@ -670,9 +714,10 @@
     <hyperlink ref="B10" r:id="rId3"/>
     <hyperlink ref="A10" r:id="rId4" display="qq://txfile/"/>
     <hyperlink ref="A11" r:id="rId5"/>
+    <hyperlink ref="B12" r:id="rId6"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId7"/>
 </worksheet>
 </file>
 
